--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13230"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ベーシック</t>
     <phoneticPr fontId="1"/>
@@ -187,6 +187,32 @@
   </si>
   <si>
     <t>曲率半径</t>
+    <rPh sb="0" eb="2">
+      <t>キョクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離[mm]走行との比較による修正値</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シュウセイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲率半径[mm]走行との比較による修正値</t>
     <rPh sb="0" eb="2">
       <t>キョクリツ</t>
     </rPh>
@@ -968,6 +994,55 @@
         <a:xfrm>
           <a:off x="2552700" y="1428750"/>
           <a:ext cx="1642" cy="902576"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190951</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>458390</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2929389" y="2571750"/>
+          <a:ext cx="952048" cy="319170"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1285,29 +1360,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1318,22 +1394,28 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1349,27 +1431,27 @@
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1010</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4">
+      <c r="G4" s="1"/>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5">
         <v>810</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>6</v>
@@ -1380,16 +1462,16 @@
       <c r="D6">
         <v>570</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f>SUM(D6:D7)</f>
         <v>1710</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6">
+      <c r="G6" s="1"/>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="C7" t="s">
         <v>31</v>
@@ -1397,13 +1479,13 @@
       <c r="D7">
         <v>1140</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7">
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -1411,35 +1493,35 @@
       <c r="D8">
         <v>378.6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>378.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="D9">
-        <f>(1/G9)*(PI()/180)*F9</f>
+        <f>(1/H9)*(PI()/180)*G9</f>
         <v>1649.6031785101966</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>90</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>1/1050.17</f>
         <v>9.5222678233047972E-4</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H5:H26" si="0">1/G9</f>
+      <c r="I9">
+        <f>1/H9</f>
         <v>1050.17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>9</v>
@@ -1447,83 +1529,89 @@
       <c r="D10">
         <v>1365</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="D11">
-        <f>(1/G11)*(PI()/180)*F11</f>
+        <f>(1/H11)*(PI()/180)*G11</f>
         <v>1141.591938461459</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>90</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>1/726.76</f>
         <v>1.3759700588915186E-3</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
+      <c r="I11">
+        <f>1/H11</f>
         <v>726.76</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="D12">
-        <f>(1/G12)*(PI()/180)*F12</f>
+        <f>(1/H12)*(PI()/180)*G12</f>
         <v>943.47324439241072</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f>90-9.34</f>
         <v>80.66</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>1/(12.91*51.912)</f>
         <v>1.49212771324027E-3</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
+      <c r="I12">
+        <f>1/H12</f>
         <v>670.18391999999994</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>570</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <f>(1/G13)*(PI()/180)*F13</f>
+        <f>(1/H13)*(PI()/180)*G13</f>
         <v>661.34979156271004</v>
       </c>
-      <c r="F13">
+      <c r="E13">
+        <v>561.34</v>
+      </c>
+      <c r="G13">
         <v>40.869999999999997</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>1/(17.86*51.912)</f>
         <v>1.0785760793914831E-3</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
+      <c r="I13">
+        <f>1/H13</f>
         <v>927.14831999999979</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>15</v>
@@ -1532,115 +1620,115 @@
         <f>9.88*51.912</f>
         <v>512.89056000000005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <f>(1/G15)*(PI()/180)*F15</f>
+        <f>(1/H15)*(PI()/180)*G15</f>
         <v>788.03328104979687</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>36</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>1/(24.16*51.912)</f>
         <v>7.9732486663625351E-4</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
+      <c r="I15">
+        <f>1/H15</f>
         <v>1254.1939199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <f>(1/G16)*(PI()/180)*F16</f>
+        <f>(1/H16)*(PI()/180)*G16</f>
         <v>298.0856207061525</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>47</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>1/(7*51.912)</f>
         <v>2.7519098254188408E-3</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
+      <c r="I16">
+        <f>1/H16</f>
         <v>363.38399999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>1/(9.5*51.912)</f>
         <v>2.0277230292559878E-3</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
+      <c r="I17">
+        <f>1/H17</f>
         <v>493.16400000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>27</v>
@@ -1648,14 +1736,15 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="A3:A26"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1663,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
@@ -196,14 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Out_FifthStraight</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Out_FifthCurve</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>曲率半径[mm]</t>
     <rPh sb="0" eb="2">
       <t>キョクリツ</t>
@@ -211,11 +203,6 @@
     <rPh sb="2" eb="4">
       <t>ハンケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AfterOut_FiftCurveStraight
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -231,6 +218,19 @@
   </si>
   <si>
     <t>ThurdCurve_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutFifthStraight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutFifthCurve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AfterOutFiftCurveStraight
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -263,11 +263,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -277,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,10 +294,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1578,7 +1590,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>Out_FiftCurve</a:t>
+            <a:t>OutFiftCurve</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2322,7 +2334,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>Out_Fifth</a:t>
+            <a:t>OutFifth</a:t>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -2452,7 +2464,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>Out_Fifth</a:t>
+            <a:t>OutFifth</a:t>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -2518,7 +2530,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>Out_Sixth</a:t>
+            <a:t>OutSixth</a:t>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -2981,7 +2993,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_4</a:t>
+            <a:t>_5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3494,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3539,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -3549,7 +3561,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -3557,14 +3569,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>1010</v>
       </c>
       <c r="G4" s="1"/>
@@ -3573,19 +3585,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="D5">
         <v>810</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3595,7 +3607,7 @@
       <c r="D6">
         <v>570</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <f>SUM(D6:D7)</f>
         <v>1710</v>
       </c>
@@ -3605,21 +3617,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7">
         <v>1140</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3634,7 +3646,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3655,7 +3667,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3670,7 +3682,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3689,12 +3701,12 @@
         <f>1/H11</f>
         <v>726.76</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -3717,10 +3729,10 @@
       <c r="J12">
         <v>570</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -3742,10 +3754,10 @@
         <f>1/H13</f>
         <v>927.14831999999979</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -3757,28 +3769,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f>(1/H15)*(PI()/180)*G15</f>
         <v>299.21924696190786</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>21.43</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <f>1/I15</f>
         <v>1.25E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3798,7 +3810,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>31.130000000000003</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H20" si="1">1/I17</f>
+        <f t="shared" ref="H17:H18" si="1">1/I17</f>
         <v>1.4285714285714286E-3</v>
       </c>
       <c r="I17">
@@ -3819,9 +3831,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -3840,9 +3852,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -3861,7 +3873,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3873,7 +3885,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3894,7 +3906,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -3915,9 +3927,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>1010</v>
@@ -3937,9 +3949,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <f>(1/H24)*(PI()/180)*G24</f>
@@ -3957,19 +3969,19 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I25">
         <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -3989,7 +4001,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -4026,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -123,14 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SixthCurve_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SixthCurve_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>距離合計[mm]</t>
     <rPh sb="0" eb="2">
       <t>キョリ</t>
@@ -233,6 +225,14 @@
 </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OutSixthCurve_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutSixthCurve_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -296,11 +296,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3507,7 +3507,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3536,32 +3536,32 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -3569,14 +3569,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>1010</v>
       </c>
       <c r="G4" s="1"/>
@@ -3585,29 +3585,29 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="D5">
         <v>810</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>570</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f>SUM(D6:D7)</f>
         <v>1710</v>
       </c>
@@ -3617,21 +3617,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1140</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3701,12 +3701,12 @@
         <f>1/H11</f>
         <v>726.76</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -3729,10 +3729,10 @@
       <c r="J12">
         <v>570</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -3754,10 +3754,10 @@
         <f>1/H13</f>
         <v>927.14831999999979</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -3769,28 +3769,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f>(1/H15)*(PI()/180)*G15</f>
         <v>299.21924696190786</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>21.43</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>1/I15</f>
         <v>1.25E-3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -3831,9 +3831,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -3852,9 +3852,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -3873,7 +3873,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +3885,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -3927,9 +3927,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>1010</v>
@@ -3949,9 +3949,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <f>(1/H24)*(PI()/180)*G24</f>
@@ -3969,21 +3969,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I25">
         <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <f>(1/H26)*(PI()/180)*G26</f>
@@ -4001,9 +4001,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <f>(1/H27)*(PI()/180)*G27</f>
@@ -4038,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
@@ -3506,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3714,6 +3714,9 @@
         <f>(1/H12)*(PI()/180)*G12</f>
         <v>943.47324439241072</v>
       </c>
+      <c r="E12">
+        <v>634</v>
+      </c>
       <c r="G12">
         <f>90-9.34</f>
         <v>80.66</v>
@@ -3754,6 +3757,9 @@
         <f>1/H13</f>
         <v>927.14831999999979</v>
       </c>
+      <c r="J13">
+        <v>527</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -3808,6 +3814,9 @@
       <c r="I16">
         <v>300</v>
       </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -3880,6 +3889,9 @@
       <c r="D20">
         <v>863.06</v>
       </c>
+      <c r="E20">
+        <v>1600</v>
+      </c>
       <c r="I20">
         <v>0</v>
       </c>
@@ -3934,6 +3946,9 @@
       <c r="D23">
         <v>1010</v>
       </c>
+      <c r="E23">
+        <v>920</v>
+      </c>
       <c r="F23">
         <f>SUM(D23)</f>
         <v>1010</v>
@@ -3955,17 +3970,18 @@
       </c>
       <c r="D24">
         <f>(1/H24)*(PI()/180)*G24</f>
-        <v>753.98223686155029</v>
+        <v>1470.2653618800232</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H24">
         <f>1/I24</f>
-        <v>2.0833333333333333E-3</v>
+        <v>2.136752136752137E-3</v>
       </c>
       <c r="I24">
-        <v>480</v>
+        <f>936/2</f>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3999,6 +4015,9 @@
       <c r="I26">
         <v>440</v>
       </c>
+      <c r="J26">
+        <v>250</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
@@ -4009,6 +4028,9 @@
         <f>(1/H27)*(PI()/180)*G27</f>
         <v>911.0618695410401</v>
       </c>
+      <c r="E27">
+        <v>1200</v>
+      </c>
       <c r="G27">
         <v>90</v>
       </c>
@@ -4018,6 +4040,9 @@
       </c>
       <c r="I27">
         <v>580</v>
+      </c>
+      <c r="J27">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ベーシック</t>
     <phoneticPr fontId="1"/>
@@ -198,13 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実測する</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ThurdCurve_4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3507,7 +3500,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3842,7 +3835,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -3863,7 +3856,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -3941,7 +3934,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>1010</v>
@@ -3957,7 +3950,8 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <f>936/2</f>
+        <v>468</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3966,7 +3960,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <f>(1/H24)*(PI()/180)*G24</f>
@@ -3976,30 +3970,29 @@
         <v>180</v>
       </c>
       <c r="H24">
-        <f>1/I24</f>
+        <f>1/I23</f>
         <v>2.136752136752137E-3</v>
       </c>
       <c r="I24">
-        <f>936/2</f>
-        <v>468</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
       </c>
       <c r="I25">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <f>(1/H26)*(PI()/180)*G26</f>
@@ -4022,7 +4015,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <f>(1/H27)*(PI()/180)*G27</f>

--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
@@ -1458,78 +1458,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>156797</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>383932</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>42497</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222989" y="596411"/>
-          <a:ext cx="915866" cy="457201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>After</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Slope</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Straight</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>184639</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -3499,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -4056,7 +3984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/区間情報/区間情報まとめ.xlsx
+++ b/区間情報/区間情報まとめ.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="7290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
@@ -314,13 +314,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
+      <xdr:colOff>26994</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>57358</xdr:colOff>
+      <xdr:colOff>62371</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>107993</xdr:rowOff>
     </xdr:to>
@@ -345,8 +345,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21981" y="0"/>
-          <a:ext cx="9677608" cy="6343205"/>
+          <a:off x="26994" y="0"/>
+          <a:ext cx="9650614" cy="6414546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3976,12 +3976,15 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -3992,6 +3995,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>